--- a/color_openpyxl.xlsx
+++ b/color_openpyxl.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="13695" windowHeight="11475"/>
+    <workbookView xWindow="1560" yWindow="2130" windowWidth="15855" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>00000000</t>
   </si>
@@ -154,7 +154,11 @@
     <t>00333333</t>
   </si>
   <si>
-    <t>00FFCC00</t>
+    <t>00FF9900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00FF99CC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,25 +994,16 @@
       <c r="A42" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="35" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="28" t="s">
@@ -1024,88 +1019,94 @@
       <c r="A47" s="30" t="s">
         <v>29</v>
       </c>
+      <c r="D47" s="36" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="D51" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="46" t="s">
         <v>45</v>
       </c>
@@ -1114,6 +1115,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>